--- a/Code/Results/Cases/Case_5_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.469531999534752</v>
+        <v>1.792708522335772</v>
       </c>
       <c r="C2">
-        <v>0.8568626081133175</v>
+        <v>0.2544466942002543</v>
       </c>
       <c r="D2">
-        <v>0.05921455287463573</v>
+        <v>0.08884395901115028</v>
       </c>
       <c r="E2">
-        <v>0.01894460787118701</v>
+        <v>0.04573766239179378</v>
       </c>
       <c r="F2">
-        <v>2.559544315360398</v>
+        <v>2.122403679451466</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.49249528153257</v>
+        <v>1.546942915479946</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3746375614585986</v>
+        <v>0.2749935328722728</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997003021331011</v>
+        <v>1.678671900351219</v>
       </c>
       <c r="C3">
-        <v>0.7378693854949745</v>
+        <v>0.2219482845710559</v>
       </c>
       <c r="D3">
-        <v>0.05916861879590485</v>
+        <v>0.08912226837352932</v>
       </c>
       <c r="E3">
-        <v>0.01899402507800874</v>
+        <v>0.045893536406727</v>
       </c>
       <c r="F3">
-        <v>2.29589414358307</v>
+        <v>2.068054950713929</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.373436549069865</v>
+        <v>1.525602533049593</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.327979730297784</v>
+        <v>0.2647931738953702</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.711708925152323</v>
+        <v>1.60975129926544</v>
       </c>
       <c r="C4">
-        <v>0.6659794701708392</v>
+        <v>0.2020316225883505</v>
       </c>
       <c r="D4">
-        <v>0.05927575189575407</v>
+        <v>0.08932779141307989</v>
       </c>
       <c r="E4">
-        <v>0.01903972176025048</v>
+        <v>0.04599787337165928</v>
       </c>
       <c r="F4">
-        <v>2.14005072526092</v>
+        <v>2.036019618066163</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.303898620541162</v>
+        <v>1.513369054355991</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3000142100371761</v>
+        <v>0.2587060589917769</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.596490360576979</v>
+        <v>1.581940629924816</v>
       </c>
       <c r="C5">
-        <v>0.6369283244086432</v>
+        <v>0.1939241500998321</v>
       </c>
       <c r="D5">
-        <v>0.05935051189566565</v>
+        <v>0.08942018263933704</v>
       </c>
       <c r="E5">
-        <v>0.01906202832100012</v>
+        <v>0.04604256283596664</v>
       </c>
       <c r="F5">
-        <v>2.077894024049456</v>
+        <v>2.023297626148334</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.276366759838496</v>
+        <v>1.508600719692993</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2887687323571271</v>
+        <v>0.256269520896069</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.577416454376248</v>
+        <v>1.577339268476862</v>
       </c>
       <c r="C6">
-        <v>0.6321177994410334</v>
+        <v>0.1925784175071215</v>
       </c>
       <c r="D6">
-        <v>0.05936472411882221</v>
+        <v>0.08943604381196479</v>
       </c>
       <c r="E6">
-        <v>0.01906595004863298</v>
+        <v>0.04605011466805475</v>
       </c>
       <c r="F6">
-        <v>2.067649919524996</v>
+        <v>2.021205153028546</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.271841257755753</v>
+        <v>1.507821990659153</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.286909955569925</v>
+        <v>0.2558675870447189</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.710151052493529</v>
+        <v>1.609375122740062</v>
       </c>
       <c r="C7">
-        <v>0.6655867488152296</v>
+        <v>0.2019222479424911</v>
       </c>
       <c r="D7">
-        <v>0.05927663786131276</v>
+        <v>0.08932900255081933</v>
       </c>
       <c r="E7">
-        <v>0.01904000789445925</v>
+        <v>0.04599846727586954</v>
       </c>
       <c r="F7">
-        <v>2.139207199621239</v>
+        <v>2.035846701905996</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.303524169333301</v>
+        <v>1.51330387102584</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2998619656879953</v>
+        <v>0.2586730210914396</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.305487741569948</v>
+        <v>1.753159983072692</v>
       </c>
       <c r="C8">
-        <v>0.8155585546569455</v>
+        <v>0.2432330273925913</v>
       </c>
       <c r="D8">
-        <v>0.05916876680383965</v>
+        <v>0.08893268737354987</v>
       </c>
       <c r="E8">
-        <v>0.01895834818374009</v>
+        <v>0.0457896174260628</v>
       </c>
       <c r="F8">
-        <v>2.467278312012894</v>
+        <v>2.103385306817657</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.450646525067924</v>
+        <v>1.539403194276758</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.358395026102059</v>
+        <v>0.2714397861484201</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.520337994887655</v>
+        <v>2.043907875067134</v>
       </c>
       <c r="C9">
-        <v>1.1215241052696</v>
+        <v>0.3245766972718798</v>
       </c>
       <c r="D9">
-        <v>0.06018086571339154</v>
+        <v>0.08843361450765741</v>
       </c>
       <c r="E9">
-        <v>0.01892909165946888</v>
+        <v>0.04544848323486361</v>
       </c>
       <c r="F9">
-        <v>3.167048289530328</v>
+        <v>2.246566849252986</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.772043096007366</v>
+        <v>1.59756731431267</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4796580067863516</v>
+        <v>0.2978837439293045</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.456182122225755</v>
+        <v>2.263003415741593</v>
       </c>
       <c r="C10">
-        <v>1.357682783626217</v>
+        <v>0.3845990521124918</v>
       </c>
       <c r="D10">
-        <v>0.06191206886551015</v>
+        <v>0.08824100734488383</v>
       </c>
       <c r="E10">
-        <v>0.01900205107025243</v>
+        <v>0.04523949753715772</v>
       </c>
       <c r="F10">
-        <v>3.729127274996188</v>
+        <v>2.358523981160914</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.035558720556011</v>
+        <v>1.644679326440013</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5743968347595967</v>
+        <v>0.3181903824846728</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.895159631236822</v>
+        <v>2.363896293203652</v>
       </c>
       <c r="C11">
-        <v>1.468692525766926</v>
+        <v>0.4119736977110051</v>
       </c>
       <c r="D11">
-        <v>0.06297966295711888</v>
+        <v>0.08819216580236855</v>
       </c>
       <c r="E11">
-        <v>0.01905975389119163</v>
+        <v>0.04515345536422366</v>
       </c>
       <c r="F11">
-        <v>3.998849873080047</v>
+        <v>2.410971984475196</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.163334077215282</v>
+        <v>1.667089367148805</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6191722621470177</v>
+        <v>0.3276235987049034</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.063675766860172</v>
+        <v>2.40227999684987</v>
       </c>
       <c r="C12">
-        <v>1.511354323289822</v>
+        <v>0.4223507785994798</v>
       </c>
       <c r="D12">
-        <v>0.06343085443522511</v>
+        <v>0.08817932775094306</v>
       </c>
       <c r="E12">
-        <v>0.01908553690744341</v>
+        <v>0.04512217060476686</v>
       </c>
       <c r="F12">
-        <v>4.103362173544241</v>
+        <v>2.431054634634108</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.213048919369612</v>
+        <v>1.675718259728114</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6364133928376532</v>
+        <v>0.3312241668819667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.027274496544635</v>
+        <v>2.394005447673635</v>
       </c>
       <c r="C13">
-        <v>1.502136603564225</v>
+        <v>0.4201153909153277</v>
       </c>
       <c r="D13">
-        <v>0.06333147723655941</v>
+        <v>0.08818183975051141</v>
       </c>
       <c r="E13">
-        <v>0.01907980190885894</v>
+        <v>0.0451288506354004</v>
       </c>
       <c r="F13">
-        <v>4.080741687941327</v>
+        <v>2.426719560200979</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.202279420306382</v>
+        <v>1.67385349508416</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6326867212498257</v>
+        <v>0.3304474518009926</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.908975377176375</v>
+        <v>2.367050571730886</v>
       </c>
       <c r="C14">
-        <v>1.472189119760969</v>
+        <v>0.4128272033370308</v>
       </c>
       <c r="D14">
-        <v>0.06301580024460662</v>
+        <v>0.08819099576256662</v>
       </c>
       <c r="E14">
-        <v>0.01906179367305949</v>
+        <v>0.04515085554580356</v>
       </c>
       <c r="F14">
-        <v>4.007398332633414</v>
+        <v>2.412619732660175</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.167396294514603</v>
+        <v>1.667796400064063</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6205846966623056</v>
+        <v>0.3279192485101703</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.836823576715403</v>
+        <v>2.350563129600459</v>
       </c>
       <c r="C15">
-        <v>1.453930366401096</v>
+        <v>0.4083644212847162</v>
       </c>
       <c r="D15">
-        <v>0.06282876590243092</v>
+        <v>0.08819734323812867</v>
       </c>
       <c r="E15">
-        <v>0.01905128853030824</v>
+        <v>0.04516450315501519</v>
       </c>
       <c r="F15">
-        <v>3.962794159705254</v>
+        <v>2.404012159129309</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.146208711172434</v>
+        <v>1.664104896914964</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6132104911753515</v>
+        <v>0.3263743598546966</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.427791694582766</v>
+        <v>2.256434616480419</v>
       </c>
       <c r="C16">
-        <v>1.350509077063293</v>
+        <v>0.3828115352207533</v>
       </c>
       <c r="D16">
-        <v>0.06184847699214657</v>
+        <v>0.08824498645901002</v>
       </c>
       <c r="E16">
-        <v>0.01899880652543384</v>
+        <v>0.04524530219119782</v>
       </c>
       <c r="F16">
-        <v>3.711811821523384</v>
+        <v>2.355127221408964</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.027383098980096</v>
+        <v>1.643234637527385</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5715080601573987</v>
+        <v>0.3175778601506209</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.180510543172147</v>
+        <v>2.19900472838242</v>
       </c>
       <c r="C17">
-        <v>1.288053223337613</v>
+        <v>0.3671542086014483</v>
       </c>
       <c r="D17">
-        <v>0.06132321314133549</v>
+        <v>0.08828420313603402</v>
       </c>
       <c r="E17">
-        <v>0.01897315693560042</v>
+        <v>0.04529718133620086</v>
       </c>
       <c r="F17">
-        <v>3.561672461074551</v>
+        <v>2.325529151467663</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.956639096488985</v>
+        <v>1.630683444075146</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5463842537753578</v>
+        <v>0.3122317960715577</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.039502951199495</v>
+        <v>2.166087800250011</v>
       </c>
       <c r="C18">
-        <v>1.252459690540604</v>
+        <v>0.3581550844534718</v>
       </c>
       <c r="D18">
-        <v>0.0610469976963941</v>
+        <v>0.08831040445686966</v>
       </c>
       <c r="E18">
-        <v>0.01896068310150856</v>
+        <v>0.04532787048554798</v>
       </c>
       <c r="F18">
-        <v>3.476612494978582</v>
+        <v>2.308647812362182</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.916679504963099</v>
+        <v>1.623556315742505</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5320886494403965</v>
+        <v>0.309175277152832</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.991959492839271</v>
+        <v>2.154962437060078</v>
       </c>
       <c r="C19">
-        <v>1.240461841309354</v>
+        <v>0.3551092373846814</v>
       </c>
       <c r="D19">
-        <v>0.06095774023074796</v>
+        <v>0.08831989933131013</v>
       </c>
       <c r="E19">
-        <v>0.01895683984237895</v>
+        <v>0.04533840724490723</v>
       </c>
       <c r="F19">
-        <v>3.448025298289735</v>
+        <v>2.302956484099127</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.903269935634754</v>
+        <v>1.621158931153417</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5272737737269324</v>
+        <v>0.3081435433301607</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.206705018997184</v>
+        <v>2.205106301525063</v>
       </c>
       <c r="C20">
-        <v>1.294666920944678</v>
+        <v>0.368820273447227</v>
       </c>
       <c r="D20">
-        <v>0.06137640302836189</v>
+        <v>0.08827965063227339</v>
       </c>
       <c r="E20">
-        <v>0.01897564877231606</v>
+        <v>0.04529157078185797</v>
       </c>
       <c r="F20">
-        <v>3.577518490663294</v>
+        <v>2.328665124218901</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.964093011132491</v>
+        <v>1.632010005528258</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.549042390260837</v>
+        <v>0.3127989877992974</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.943657365320689</v>
+        <v>2.374963034897917</v>
       </c>
       <c r="C21">
-        <v>1.480967496446112</v>
+        <v>0.4149676184583768</v>
       </c>
       <c r="D21">
-        <v>0.06310719015872479</v>
+        <v>0.08818815223409615</v>
       </c>
       <c r="E21">
-        <v>0.01906697279803282</v>
+        <v>0.04514435695850949</v>
       </c>
       <c r="F21">
-        <v>4.028873490726681</v>
+        <v>2.416755148649116</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.177604551142437</v>
+        <v>1.669571627063135</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6241312141496564</v>
+        <v>0.3286610696631698</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.438838462167325</v>
+        <v>2.487011137446473</v>
       </c>
       <c r="C22">
-        <v>1.606432631853465</v>
+        <v>0.4451914768027336</v>
       </c>
       <c r="D22">
-        <v>0.06451580391673417</v>
+        <v>0.08816136531699215</v>
       </c>
       <c r="E22">
-        <v>0.01914982365130413</v>
+        <v>0.0450557071337192</v>
       </c>
       <c r="F22">
-        <v>4.337908009488814</v>
+        <v>2.47562109748074</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.325006792480551</v>
+        <v>1.694952996079579</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6748969849384139</v>
+        <v>0.3391936116701686</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.173170448705719</v>
+        <v>2.427113539550419</v>
       </c>
       <c r="C23">
-        <v>1.539089014313788</v>
+        <v>0.4290543171636045</v>
       </c>
       <c r="D23">
-        <v>0.06373610053982048</v>
+        <v>0.0881726143326631</v>
       </c>
       <c r="E23">
-        <v>0.01910333034735956</v>
+        <v>0.04510232933763714</v>
       </c>
       <c r="F23">
-        <v>4.171551650262501</v>
+        <v>2.444083688409393</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.245544068121674</v>
+        <v>1.681329631784195</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6476310745814828</v>
+        <v>0.3335569337926927</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.194858918472733</v>
+        <v>2.202347468076425</v>
       </c>
       <c r="C24">
-        <v>1.291675900861549</v>
+        <v>0.3680670378619766</v>
       </c>
       <c r="D24">
-        <v>0.06135227611278538</v>
+        <v>0.08828169744065661</v>
       </c>
       <c r="E24">
-        <v>0.01897451516431037</v>
+        <v>0.04529410462494976</v>
       </c>
       <c r="F24">
-        <v>3.570350611130152</v>
+        <v>2.327246930746554</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.960720892532663</v>
+        <v>1.631409990902156</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5478401877543888</v>
+        <v>0.3125425074752144</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.18524416762267</v>
+        <v>1.964299393445003</v>
       </c>
       <c r="C25">
-        <v>1.037089416471247</v>
+        <v>0.3025296680351062</v>
       </c>
       <c r="D25">
-        <v>0.0597532367574658</v>
+        <v>0.08853838897888267</v>
       </c>
       <c r="E25">
-        <v>0.0189216118868778</v>
+        <v>0.04553345119743391</v>
       </c>
       <c r="F25">
-        <v>2.97040932958501</v>
+        <v>2.206660695328992</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.680876654215254</v>
+        <v>1.58107224860801</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.445997671042619</v>
+        <v>0.29057716589476</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.792708522335772</v>
+        <v>3.469531999534922</v>
       </c>
       <c r="C2">
-        <v>0.2544466942002543</v>
+        <v>0.8568626081133459</v>
       </c>
       <c r="D2">
-        <v>0.08884395901115028</v>
+        <v>0.05921455287474942</v>
       </c>
       <c r="E2">
-        <v>0.04573766239179378</v>
+        <v>0.01894460787118124</v>
       </c>
       <c r="F2">
-        <v>2.122403679451466</v>
+        <v>2.559544315360398</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.546942915479946</v>
+        <v>1.492495281532555</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2749935328722728</v>
+        <v>0.3746375614586981</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.678671900351219</v>
+        <v>2.997003021330954</v>
       </c>
       <c r="C3">
-        <v>0.2219482845710559</v>
+        <v>0.7378693854949745</v>
       </c>
       <c r="D3">
-        <v>0.08912226837352932</v>
+        <v>0.0591686187959013</v>
       </c>
       <c r="E3">
-        <v>0.045893536406727</v>
+        <v>0.01899402507800874</v>
       </c>
       <c r="F3">
-        <v>2.068054950713929</v>
+        <v>2.295894143583055</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.525602533049593</v>
+        <v>1.373436549069865</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2647931738953702</v>
+        <v>0.327979730297784</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.60975129926544</v>
+        <v>2.711708925152266</v>
       </c>
       <c r="C4">
-        <v>0.2020316225883505</v>
+        <v>0.6659794701712656</v>
       </c>
       <c r="D4">
-        <v>0.08932779141307989</v>
+        <v>0.05927575189565104</v>
       </c>
       <c r="E4">
-        <v>0.04599787337165928</v>
+        <v>0.01903972176024871</v>
       </c>
       <c r="F4">
-        <v>2.036019618066163</v>
+        <v>2.14005072526092</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.513369054355991</v>
+        <v>1.303898620541133</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2587060589917769</v>
+        <v>0.3000142100372187</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.581940629924816</v>
+        <v>2.596490360577036</v>
       </c>
       <c r="C5">
-        <v>0.1939241500998321</v>
+        <v>0.6369283244086432</v>
       </c>
       <c r="D5">
-        <v>0.08942018263933704</v>
+        <v>0.0593505118955342</v>
       </c>
       <c r="E5">
-        <v>0.04604256283596664</v>
+        <v>0.01906202832101078</v>
       </c>
       <c r="F5">
-        <v>2.023297626148334</v>
+        <v>2.077894024049471</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.508600719692993</v>
+        <v>1.276366759838524</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.256269520896069</v>
+        <v>0.2887687323572123</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.577339268476862</v>
+        <v>2.577416454376078</v>
       </c>
       <c r="C6">
-        <v>0.1925784175071215</v>
+        <v>0.6321177994408629</v>
       </c>
       <c r="D6">
-        <v>0.08943604381196479</v>
+        <v>0.05936472411879024</v>
       </c>
       <c r="E6">
-        <v>0.04605011466805475</v>
+        <v>0.01906595004863387</v>
       </c>
       <c r="F6">
-        <v>2.021205153028546</v>
+        <v>2.06764991952501</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.507821990659153</v>
+        <v>1.271841257755753</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2558675870447189</v>
+        <v>0.2869099555698256</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.609375122740062</v>
+        <v>2.710151052493643</v>
       </c>
       <c r="C7">
-        <v>0.2019222479424911</v>
+        <v>0.6655867488153433</v>
       </c>
       <c r="D7">
-        <v>0.08932900255081933</v>
+        <v>0.05927663786132698</v>
       </c>
       <c r="E7">
-        <v>0.04599846727586954</v>
+        <v>0.01904000789439042</v>
       </c>
       <c r="F7">
-        <v>2.035846701905996</v>
+        <v>2.139207199621282</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.51330387102584</v>
+        <v>1.303524169333343</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2586730210914396</v>
+        <v>0.2998619656880237</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.753159983072692</v>
+        <v>3.305487741569891</v>
       </c>
       <c r="C8">
-        <v>0.2432330273925913</v>
+        <v>0.8155585546569171</v>
       </c>
       <c r="D8">
-        <v>0.08893268737354987</v>
+        <v>0.05916876680393202</v>
       </c>
       <c r="E8">
-        <v>0.0457896174260628</v>
+        <v>0.01895834818373032</v>
       </c>
       <c r="F8">
-        <v>2.103385306817657</v>
+        <v>2.467278312012965</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.539403194276758</v>
+        <v>1.450646525067938</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2714397861484201</v>
+        <v>0.3583950261021158</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.043907875067134</v>
+        <v>4.520337994887711</v>
       </c>
       <c r="C9">
-        <v>0.3245766972718798</v>
+        <v>1.121524105269373</v>
       </c>
       <c r="D9">
-        <v>0.08843361450765741</v>
+        <v>0.0601808657134697</v>
       </c>
       <c r="E9">
-        <v>0.04544848323486361</v>
+        <v>0.01892909165951018</v>
       </c>
       <c r="F9">
-        <v>2.246566849252986</v>
+        <v>3.167048289530356</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.59756731431267</v>
+        <v>1.77204309600738</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2978837439293045</v>
+        <v>0.4796580067862521</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.263003415741593</v>
+        <v>5.456182122225528</v>
       </c>
       <c r="C10">
-        <v>0.3845990521124918</v>
+        <v>1.357682783625705</v>
       </c>
       <c r="D10">
-        <v>0.08824100734488383</v>
+        <v>0.06191206886571621</v>
       </c>
       <c r="E10">
-        <v>0.04523949753715772</v>
+        <v>0.01900205107024977</v>
       </c>
       <c r="F10">
-        <v>2.358523981160914</v>
+        <v>3.729127274996245</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.644679326440013</v>
+        <v>2.035558720556025</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3181903824846728</v>
+        <v>0.5743968347595967</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.363896293203652</v>
+        <v>5.895159631236766</v>
       </c>
       <c r="C11">
-        <v>0.4119736977110051</v>
+        <v>1.468692525766926</v>
       </c>
       <c r="D11">
-        <v>0.08819216580236855</v>
+        <v>0.06297966295690571</v>
       </c>
       <c r="E11">
-        <v>0.04515345536422366</v>
+        <v>0.01905975389119163</v>
       </c>
       <c r="F11">
-        <v>2.410971984475196</v>
+        <v>3.998849873080019</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.667089367148805</v>
+        <v>2.163334077215268</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3276235987049034</v>
+        <v>0.6191722621468898</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.40227999684987</v>
+        <v>6.063675766860115</v>
       </c>
       <c r="C12">
-        <v>0.4223507785994798</v>
+        <v>1.511354323289765</v>
       </c>
       <c r="D12">
-        <v>0.08817932775094306</v>
+        <v>0.06343085443538854</v>
       </c>
       <c r="E12">
-        <v>0.04512217060476686</v>
+        <v>0.01908553690748871</v>
       </c>
       <c r="F12">
-        <v>2.431054634634108</v>
+        <v>4.103362173544127</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.675718259728114</v>
+        <v>2.213048919369612</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3312241668819667</v>
+        <v>0.6364133928376106</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.394005447673635</v>
+        <v>6.027274496544862</v>
       </c>
       <c r="C13">
-        <v>0.4201153909153277</v>
+        <v>1.502136603564225</v>
       </c>
       <c r="D13">
-        <v>0.08818183975051141</v>
+        <v>0.06333147723619703</v>
       </c>
       <c r="E13">
-        <v>0.0451288506354004</v>
+        <v>0.01907980190885805</v>
       </c>
       <c r="F13">
-        <v>2.426719560200979</v>
+        <v>4.080741687941327</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.67385349508416</v>
+        <v>2.202279420306382</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3304474518009926</v>
+        <v>0.6326867212498399</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.367050571730886</v>
+        <v>5.908975377176148</v>
       </c>
       <c r="C14">
-        <v>0.4128272033370308</v>
+        <v>1.472189119760742</v>
       </c>
       <c r="D14">
-        <v>0.08819099576256662</v>
+        <v>0.06301580024459952</v>
       </c>
       <c r="E14">
-        <v>0.04515085554580356</v>
+        <v>0.01906179367309413</v>
       </c>
       <c r="F14">
-        <v>2.412619732660175</v>
+        <v>4.007398332633443</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.667796400064063</v>
+        <v>2.167396294514603</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3279192485101703</v>
+        <v>0.6205846966624478</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.350563129600459</v>
+        <v>5.836823576715744</v>
       </c>
       <c r="C15">
-        <v>0.4083644212847162</v>
+        <v>1.45393036640121</v>
       </c>
       <c r="D15">
-        <v>0.08819734323812867</v>
+        <v>0.06282876590279329</v>
       </c>
       <c r="E15">
-        <v>0.04516450315501519</v>
+        <v>0.01905128853027893</v>
       </c>
       <c r="F15">
-        <v>2.404012159129309</v>
+        <v>3.962794159705254</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.664104896914964</v>
+        <v>2.146208711172434</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3263743598546966</v>
+        <v>0.6132104911755363</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.256434616480419</v>
+        <v>5.427791694582822</v>
       </c>
       <c r="C16">
-        <v>0.3828115352207533</v>
+        <v>1.350509077063293</v>
       </c>
       <c r="D16">
-        <v>0.08824498645901002</v>
+        <v>0.06184847699203999</v>
       </c>
       <c r="E16">
-        <v>0.04524530219119782</v>
+        <v>0.01899880652543207</v>
       </c>
       <c r="F16">
-        <v>2.355127221408964</v>
+        <v>3.711811821523469</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.643234637527385</v>
+        <v>2.027383098980124</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3175778601506209</v>
+        <v>0.5715080601574556</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.19900472838242</v>
+        <v>5.180510543172318</v>
       </c>
       <c r="C17">
-        <v>0.3671542086014483</v>
+        <v>1.288053223338068</v>
       </c>
       <c r="D17">
-        <v>0.08828420313603402</v>
+        <v>0.06132321314155575</v>
       </c>
       <c r="E17">
-        <v>0.04529718133620086</v>
+        <v>0.01897315693556223</v>
       </c>
       <c r="F17">
-        <v>2.325529151467663</v>
+        <v>3.561672461074551</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.630683444075146</v>
+        <v>1.956639096488971</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3122317960715577</v>
+        <v>0.5463842537754005</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.166087800250011</v>
+        <v>5.039502951199495</v>
       </c>
       <c r="C18">
-        <v>0.3581550844534718</v>
+        <v>1.252459690540832</v>
       </c>
       <c r="D18">
-        <v>0.08831040445686966</v>
+        <v>0.06104699769653621</v>
       </c>
       <c r="E18">
-        <v>0.04532787048554798</v>
+        <v>0.01896068310150945</v>
       </c>
       <c r="F18">
-        <v>2.308647812362182</v>
+        <v>3.476612494978582</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.623556315742505</v>
+        <v>1.916679504963085</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.309175277152832</v>
+        <v>0.5320886494403823</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.154962437060078</v>
+        <v>4.991959492839328</v>
       </c>
       <c r="C19">
-        <v>0.3551092373846814</v>
+        <v>1.240461841309241</v>
       </c>
       <c r="D19">
-        <v>0.08831989933131013</v>
+        <v>0.06095774023062006</v>
       </c>
       <c r="E19">
-        <v>0.04533840724490723</v>
+        <v>0.01895683984236385</v>
       </c>
       <c r="F19">
-        <v>2.302956484099127</v>
+        <v>3.448025298289735</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.621158931153417</v>
+        <v>1.903269935634768</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3081435433301607</v>
+        <v>0.5272737737267903</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.205106301525063</v>
+        <v>5.206705018997013</v>
       </c>
       <c r="C20">
-        <v>0.368820273447227</v>
+        <v>1.294666920944621</v>
       </c>
       <c r="D20">
-        <v>0.08827965063227339</v>
+        <v>0.06137640302833347</v>
       </c>
       <c r="E20">
-        <v>0.04529157078185797</v>
+        <v>0.01897564877234714</v>
       </c>
       <c r="F20">
-        <v>2.328665124218901</v>
+        <v>3.577518490663351</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.632010005528258</v>
+        <v>1.964093011132519</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3127989877992974</v>
+        <v>0.5490423902608512</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.374963034897917</v>
+        <v>5.943657365320519</v>
       </c>
       <c r="C21">
-        <v>0.4149676184583768</v>
+        <v>1.480967496445373</v>
       </c>
       <c r="D21">
-        <v>0.08818815223409615</v>
+        <v>0.06310719015871769</v>
       </c>
       <c r="E21">
-        <v>0.04514435695850949</v>
+        <v>0.01906697279803282</v>
       </c>
       <c r="F21">
-        <v>2.416755148649116</v>
+        <v>4.028873490726681</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.669571627063135</v>
+        <v>2.177604551142437</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3286610696631698</v>
+        <v>0.6241312141495143</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.487011137446473</v>
+        <v>6.438838462167325</v>
       </c>
       <c r="C22">
-        <v>0.4451914768027336</v>
+        <v>1.606432631853124</v>
       </c>
       <c r="D22">
-        <v>0.08816136531699215</v>
+        <v>0.06451580391673417</v>
       </c>
       <c r="E22">
-        <v>0.0450557071337192</v>
+        <v>0.01914982365130591</v>
       </c>
       <c r="F22">
-        <v>2.47562109748074</v>
+        <v>4.337908009488814</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.694952996079579</v>
+        <v>2.325006792480536</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3391936116701686</v>
+        <v>0.6748969849384849</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.427113539550419</v>
+        <v>6.173170448705605</v>
       </c>
       <c r="C23">
-        <v>0.4290543171636045</v>
+        <v>1.539089014313618</v>
       </c>
       <c r="D23">
-        <v>0.0881726143326631</v>
+        <v>0.06373610053965706</v>
       </c>
       <c r="E23">
-        <v>0.04510232933763714</v>
+        <v>0.01910333034738088</v>
       </c>
       <c r="F23">
-        <v>2.444083688409393</v>
+        <v>4.171551650262558</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.681329631784195</v>
+        <v>2.245544068121674</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3335569337926927</v>
+        <v>0.6476310745816676</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.202347468076425</v>
+        <v>5.194858918472903</v>
       </c>
       <c r="C24">
-        <v>0.3680670378619766</v>
+        <v>1.291675900861435</v>
       </c>
       <c r="D24">
-        <v>0.08828169744065661</v>
+        <v>0.06135227611289196</v>
       </c>
       <c r="E24">
-        <v>0.04529410462494976</v>
+        <v>0.01897451516435922</v>
       </c>
       <c r="F24">
-        <v>2.327246930746554</v>
+        <v>3.570350611130124</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.631409990902156</v>
+        <v>1.960720892532677</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3125425074752144</v>
+        <v>0.5478401877542751</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.964299393445003</v>
+        <v>4.185244167622557</v>
       </c>
       <c r="C25">
-        <v>0.3025296680351062</v>
+        <v>1.037089416470934</v>
       </c>
       <c r="D25">
-        <v>0.08853838897888267</v>
+        <v>0.05975323675769317</v>
       </c>
       <c r="E25">
-        <v>0.04553345119743391</v>
+        <v>0.01892161188686803</v>
       </c>
       <c r="F25">
-        <v>2.206660695328992</v>
+        <v>2.970409329584982</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.58107224860801</v>
+        <v>1.680876654215282</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.29057716589476</v>
+        <v>0.4459976710427043</v>
       </c>
       <c r="M25">
         <v>0</v>
